--- a/pidis/expdata/90011.xlsx
+++ b/pidis/expdata/90011.xlsx
@@ -15,12 +15,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="75">
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
   <si>
     <t>Q2</t>
   </si>
@@ -53,6 +47,12 @@
   </si>
   <si>
     <t>obs</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>pol_u</t>
   </si>
   <si>
     <t>stat_u</t>
@@ -822,46 +822,46 @@
     </row>
     <row r="2" spans="1:72">
       <c r="A2">
-        <v>2.510790786460725</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B2">
-        <v>0.001092577133214109</v>
+        <v>1.58489</v>
       </c>
       <c r="C2">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D2">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E2">
-        <v>3.98107</v>
+        <v>0.0004349633223617825</v>
       </c>
       <c r="F2">
-        <v>140.7</v>
+        <v>0.0003254</v>
       </c>
       <c r="G2">
-        <v>0.0004349633223617825</v>
+        <v>0.000581417</v>
       </c>
       <c r="H2">
-        <v>0.0003254</v>
-      </c>
-      <c r="I2">
-        <v>0.000581417</v>
+        <v>0.2917279080142555</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
       </c>
       <c r="J2">
-        <v>0.2917279080142555</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M2">
+        <v>3.881566576244013e-10</v>
       </c>
       <c r="N2">
-        <v>9.648730705585359e-06</v>
+        <v>9.551349397579324e-06</v>
       </c>
       <c r="O2">
         <v>9.703916440610032e-10</v>
@@ -1040,46 +1040,46 @@
     </row>
     <row r="3" spans="1:72">
       <c r="A3">
-        <v>2.509931174668025</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B3">
-        <v>0.001952188925913572</v>
+        <v>1.58489</v>
       </c>
       <c r="C3">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D3">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E3">
-        <v>3.98107</v>
+        <v>0.0007771813588989379</v>
       </c>
       <c r="F3">
-        <v>140.7</v>
+        <v>0.000581417</v>
       </c>
       <c r="G3">
-        <v>0.0007771813588989379</v>
+        <v>0.00103886</v>
       </c>
       <c r="H3">
-        <v>0.000581417</v>
-      </c>
-      <c r="I3">
-        <v>0.00103886</v>
+        <v>0.1632706943399984</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
       </c>
       <c r="J3">
-        <v>0.1632706943399984</v>
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M3">
+        <v>8.478209491289568e-11</v>
       </c>
       <c r="N3">
-        <v>2.409072434860371e-06</v>
+        <v>2.374114678216113e-06</v>
       </c>
       <c r="O3">
         <v>2.119552372822392e-10</v>
@@ -1258,46 +1258,46 @@
     </row>
     <row r="4" spans="1:72">
       <c r="A4">
-        <v>6.304668411442897</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B4">
-        <v>0.004903681813507828</v>
+        <v>3.98107</v>
       </c>
       <c r="C4">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>0.0007771813588989379</v>
       </c>
       <c r="F4">
-        <v>140.7</v>
+        <v>0.000581417</v>
       </c>
       <c r="G4">
-        <v>0.0007771813588989379</v>
+        <v>0.00103886</v>
       </c>
       <c r="H4">
-        <v>0.000581417</v>
-      </c>
-      <c r="I4">
-        <v>0.00103886</v>
+        <v>0.4101178548275871</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
       </c>
       <c r="J4">
-        <v>0.4101178548275871</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M4">
+        <v>1.302905866105327e-09</v>
       </c>
       <c r="N4">
-        <v>3.708875377107342e-06</v>
+        <v>3.65571627107604e-06</v>
       </c>
       <c r="O4">
         <v>3.257264665263318e-09</v>
@@ -1476,46 +1476,46 @@
     </row>
     <row r="5" spans="1:72">
       <c r="A5">
-        <v>2.508395242641626</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B5">
-        <v>0.003488120952313114</v>
+        <v>1.58489</v>
       </c>
       <c r="C5">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D5">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E5">
-        <v>3.98107</v>
+        <v>0.001388647658911359</v>
       </c>
       <c r="F5">
-        <v>140.7</v>
+        <v>0.00103886</v>
       </c>
       <c r="G5">
-        <v>0.001388647658911359</v>
+        <v>0.00185621</v>
       </c>
       <c r="H5">
-        <v>0.00103886</v>
-      </c>
-      <c r="I5">
-        <v>0.00185621</v>
+        <v>0.09137734779678394</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
       </c>
       <c r="J5">
-        <v>0.09137734779678394</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M5">
+        <v>-2.25879623313453e-10</v>
       </c>
       <c r="N5">
-        <v>1.36058943351428e-06</v>
+        <v>1.332047289196588e-06</v>
       </c>
       <c r="O5">
         <v>-5.646990582836326e-10</v>
@@ -1694,46 +1694,46 @@
     </row>
     <row r="6" spans="1:72">
       <c r="A6">
-        <v>6.300810320740371</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B6">
-        <v>0.00876177251603295</v>
+        <v>3.98107</v>
       </c>
       <c r="C6">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>0.001388647658911359</v>
       </c>
       <c r="F6">
-        <v>140.7</v>
+        <v>0.00103886</v>
       </c>
       <c r="G6">
-        <v>0.001388647658911359</v>
+        <v>0.00185621</v>
       </c>
       <c r="H6">
-        <v>0.00103886</v>
-      </c>
-      <c r="I6">
-        <v>0.00185621</v>
+        <v>0.2295297512498576</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
       </c>
       <c r="J6">
-        <v>0.2295297512498576</v>
+        <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M6">
+        <v>2.321577619638737e-10</v>
       </c>
       <c r="N6">
-        <v>1.403699651554236e-06</v>
+        <v>1.378427877419914e-06</v>
       </c>
       <c r="O6">
         <v>5.803944049096843e-10</v>
@@ -1912,46 +1912,46 @@
     </row>
     <row r="7" spans="1:72">
       <c r="A7">
-        <v>2.505650883770345</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B7">
-        <v>0.00623247982359454</v>
+        <v>1.58489</v>
       </c>
       <c r="C7">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D7">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E7">
-        <v>3.98107</v>
+        <v>0.002481197938536949</v>
       </c>
       <c r="F7">
-        <v>140.7</v>
+        <v>0.00185621</v>
       </c>
       <c r="G7">
-        <v>0.002481197938536949</v>
+        <v>0.00331662</v>
       </c>
       <c r="H7">
-        <v>0.00185621</v>
-      </c>
-      <c r="I7">
-        <v>0.00331662</v>
+        <v>0.05114099851717389</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
       </c>
       <c r="J7">
-        <v>0.05114099851717389</v>
+        <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M7">
+        <v>-6.089269915549025e-10</v>
       </c>
       <c r="N7">
-        <v>7.826473230969595e-07</v>
+        <v>7.612757652075307e-07</v>
       </c>
       <c r="O7">
         <v>-1.522317478887256e-09</v>
@@ -2130,46 +2130,46 @@
     </row>
     <row r="8" spans="1:72">
       <c r="A8">
-        <v>6.293916795985567</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B8">
-        <v>0.01565529727083806</v>
+        <v>3.98107</v>
       </c>
       <c r="C8">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>0.002481197938536949</v>
       </c>
       <c r="F8">
-        <v>140.7</v>
+        <v>0.00185621</v>
       </c>
       <c r="G8">
-        <v>0.002481197938536949</v>
+        <v>0.00331662</v>
       </c>
       <c r="H8">
-        <v>0.00185621</v>
-      </c>
-      <c r="I8">
-        <v>0.00331662</v>
+        <v>0.128460509648644</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
       </c>
       <c r="J8">
-        <v>0.128460509648644</v>
+        <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M8">
+        <v>-8.756402951276045e-10</v>
       </c>
       <c r="N8">
-        <v>7.94664151854039e-07</v>
+        <v>7.764278764133593e-07</v>
       </c>
       <c r="O8">
         <v>-2.189100737819011e-09</v>
@@ -2348,46 +2348,46 @@
     </row>
     <row r="9" spans="1:72">
       <c r="A9">
-        <v>15.80961881728109</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B9">
-        <v>0.03932436515224281</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E9">
-        <v>25.1189</v>
+        <v>0.002481197938536949</v>
       </c>
       <c r="F9">
-        <v>140.7</v>
+        <v>0.00185621</v>
       </c>
       <c r="G9">
-        <v>0.002481197938536949</v>
+        <v>0.00331662</v>
       </c>
       <c r="H9">
-        <v>0.00185621</v>
-      </c>
-      <c r="I9">
-        <v>0.00331662</v>
+        <v>0.3226785094957234</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
       </c>
       <c r="J9">
-        <v>0.3226785094957234</v>
+        <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L9">
-        <v>7</v>
-      </c>
-      <c r="M9" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M9">
+        <v>4.846558732024763e-10</v>
       </c>
       <c r="N9">
-        <v>1.346191968241335e-06</v>
+        <v>1.319439721879225e-06</v>
       </c>
       <c r="O9">
         <v>1.211639683006191e-09</v>
@@ -2566,49 +2566,49 @@
     </row>
     <row r="10" spans="1:72">
       <c r="A10">
-        <v>2.500747334693106</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B10">
-        <v>0.01113602890083275</v>
+        <v>1.58489</v>
       </c>
       <c r="C10">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D10">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E10">
-        <v>3.98107</v>
+        <v>0.004433338371611173</v>
       </c>
       <c r="F10">
-        <v>140.7</v>
+        <v>0.00331662</v>
       </c>
       <c r="G10">
-        <v>0.004433338371611173</v>
+        <v>0.00592606</v>
       </c>
       <c r="H10">
-        <v>0.00331662</v>
-      </c>
-      <c r="I10">
-        <v>0.00592606</v>
+        <v>0.02862198403534402</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
       </c>
       <c r="J10">
-        <v>0.02862198403534402</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L10">
-        <v>8</v>
-      </c>
-      <c r="M10" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M10">
+        <v>-1.142790648677237e-09</v>
       </c>
       <c r="N10">
-        <v>4.550250942793199e-07</v>
+        <v>4.39489232115612e-07</v>
       </c>
       <c r="O10">
-        <v>-2.856976621693093e-09</v>
+        <v>-2.856976621693094e-09</v>
       </c>
       <c r="P10" t="s">
         <v>74</v>
@@ -2784,46 +2784,46 @@
     </row>
     <row r="11" spans="1:72">
       <c r="A11">
-        <v>6.281599625186923</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B11">
-        <v>0.02797246806948065</v>
+        <v>3.98107</v>
       </c>
       <c r="C11">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>0.004433338371611173</v>
       </c>
       <c r="F11">
-        <v>140.7</v>
+        <v>0.00331662</v>
       </c>
       <c r="G11">
-        <v>0.004433338371611173</v>
+        <v>0.00592606</v>
       </c>
       <c r="H11">
-        <v>0.00331662</v>
-      </c>
-      <c r="I11">
-        <v>0.00592606</v>
+        <v>0.07189524575084165</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
       </c>
       <c r="J11">
-        <v>0.07189524575084165</v>
+        <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M11">
+        <v>-2.289443844225694e-09</v>
       </c>
       <c r="N11">
-        <v>4.609485405481717e-07</v>
+        <v>4.473861081432195e-07</v>
       </c>
       <c r="O11">
         <v>-5.723609610564235e-09</v>
@@ -3002,46 +3002,46 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12">
-        <v>15.77867945447316</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B12">
-        <v>0.07026372796016697</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D12">
+        <v>140.7</v>
+      </c>
+      <c r="E12">
+        <v>0.004433338371611173</v>
+      </c>
+      <c r="F12">
+        <v>0.00331662</v>
+      </c>
+      <c r="G12">
+        <v>0.00592606</v>
+      </c>
+      <c r="H12">
+        <v>0.1805928592542775</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="E12">
-        <v>25.1189</v>
-      </c>
-      <c r="F12">
-        <v>140.7</v>
-      </c>
-      <c r="G12">
-        <v>0.004433338371611173</v>
-      </c>
-      <c r="H12">
-        <v>0.00331662</v>
-      </c>
-      <c r="I12">
-        <v>0.00592606</v>
-      </c>
-      <c r="J12">
-        <v>0.1805928592542775</v>
-      </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M12">
+        <v>-4.013973667290428e-09</v>
       </c>
       <c r="N12">
-        <v>6.851410132739067e-07</v>
+        <v>6.677966131559736e-07</v>
       </c>
       <c r="O12">
         <v>-1.003493416822607e-08</v>
@@ -3220,46 +3220,46 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13">
-        <v>39.63424000938539</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B13">
-        <v>0.1764944567105666</v>
+        <v>25.1189</v>
       </c>
       <c r="C13">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D13">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E13">
-        <v>63.0957</v>
+        <v>0.004433338371611173</v>
       </c>
       <c r="F13">
-        <v>140.7</v>
+        <v>0.00331662</v>
       </c>
       <c r="G13">
-        <v>0.004433338371611173</v>
+        <v>0.00592606</v>
       </c>
       <c r="H13">
-        <v>0.00331662</v>
-      </c>
-      <c r="I13">
-        <v>0.00592606</v>
+        <v>0.4536286289557668</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
       </c>
       <c r="J13">
-        <v>0.4536286289557668</v>
+        <v>11</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M13">
+        <v>-2.92104425005541e-09</v>
       </c>
       <c r="N13">
-        <v>1.400841264439477e-06</v>
+        <v>1.370393380813671e-06</v>
       </c>
       <c r="O13">
         <v>-7.302610625138526e-09</v>
@@ -3438,46 +3438,46 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14">
-        <v>2.491985808669057</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B14">
-        <v>0.01989755492488246</v>
+        <v>1.58489</v>
       </c>
       <c r="C14">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D14">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E14">
-        <v>3.98107</v>
+        <v>0.007921368966914746</v>
       </c>
       <c r="F14">
-        <v>140.7</v>
+        <v>0.00592606</v>
       </c>
       <c r="G14">
-        <v>0.007921368966914746</v>
+        <v>0.0105885</v>
       </c>
       <c r="H14">
-        <v>0.00592606</v>
-      </c>
-      <c r="I14">
-        <v>0.0105885</v>
+        <v>0.01601881450359396</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
       </c>
       <c r="J14">
-        <v>0.01601881450359396</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M14">
+        <v>-1.941237614472291e-09</v>
       </c>
       <c r="N14">
-        <v>2.667007759051881e-07</v>
+        <v>2.550743880612185e-07</v>
       </c>
       <c r="O14">
         <v>-4.853094036180728e-09</v>
@@ -3656,46 +3656,46 @@
     </row>
     <row r="15" spans="1:72">
       <c r="A15">
-        <v>6.259591644682372</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B15">
-        <v>0.0499804485740326</v>
+        <v>3.98107</v>
       </c>
       <c r="C15">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>0.007921368966914746</v>
       </c>
       <c r="F15">
-        <v>140.7</v>
+        <v>0.00592606</v>
       </c>
       <c r="G15">
-        <v>0.007921368966914746</v>
+        <v>0.0105885</v>
       </c>
       <c r="H15">
-        <v>0.00592606</v>
-      </c>
-      <c r="I15">
-        <v>0.0105885</v>
+        <v>0.04023748332578482</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
       </c>
       <c r="J15">
-        <v>0.04023748332578482</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15">
-        <v>13</v>
-      </c>
-      <c r="M15" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M15">
+        <v>-4.347304426600939e-09</v>
       </c>
       <c r="N15">
-        <v>2.735300191201212e-07</v>
+        <v>2.608017517537972e-07</v>
       </c>
       <c r="O15">
         <v>-1.086826106650235e-08</v>
@@ -3874,46 +3874,46 @@
     </row>
     <row r="16" spans="1:72">
       <c r="A16">
-        <v>15.72339785574961</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B16">
-        <v>0.1255453266837224</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E16">
-        <v>25.1189</v>
+        <v>0.007921368966914746</v>
       </c>
       <c r="F16">
-        <v>140.7</v>
+        <v>0.00592606</v>
       </c>
       <c r="G16">
-        <v>0.007921368966914746</v>
+        <v>0.0105885</v>
       </c>
       <c r="H16">
-        <v>0.00592606</v>
-      </c>
-      <c r="I16">
-        <v>0.0105885</v>
+        <v>0.1010720818478422</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
       </c>
       <c r="J16">
-        <v>0.1010720818478422</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L16">
-        <v>14</v>
-      </c>
-      <c r="M16" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M16">
+        <v>-9.869928196723406e-09</v>
       </c>
       <c r="N16">
-        <v>4.090000435407429e-07</v>
+        <v>3.855432188188099e-07</v>
       </c>
       <c r="O16">
         <v>-2.467482049180851e-08</v>
@@ -4092,46 +4092,46 @@
     </row>
     <row r="17" spans="1:72">
       <c r="A17">
-        <v>39.49537894954614</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B17">
-        <v>0.3153555165498158</v>
+        <v>25.1189</v>
       </c>
       <c r="C17">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D17">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E17">
-        <v>63.0957</v>
+        <v>0.007921368966914746</v>
       </c>
       <c r="F17">
-        <v>140.7</v>
+        <v>0.00592606</v>
       </c>
       <c r="G17">
-        <v>0.007921368966914746</v>
+        <v>0.0105885</v>
       </c>
       <c r="H17">
-        <v>0.00592606</v>
-      </c>
-      <c r="I17">
-        <v>0.0105885</v>
+        <v>0.2538815216928668</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
       </c>
       <c r="J17">
-        <v>0.2538815216928668</v>
+        <v>15</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L17">
-        <v>15</v>
-      </c>
-      <c r="M17" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M17">
+        <v>-2.216991256901532e-08</v>
       </c>
       <c r="N17">
-        <v>6.696524604934029e-07</v>
+        <v>6.158849278292432e-07</v>
       </c>
       <c r="O17">
         <v>-5.54247814225383e-08</v>
@@ -4310,46 +4310,46 @@
     </row>
     <row r="18" spans="1:72">
       <c r="A18">
-        <v>2.47633093916566</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B18">
-        <v>0.03555242442827922</v>
+        <v>1.58489</v>
       </c>
       <c r="C18">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D18">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E18">
-        <v>3.98107</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F18">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G18">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H18">
-        <v>0.0105885</v>
-      </c>
-      <c r="I18">
-        <v>0.0189193</v>
+        <v>0.008965218168447472</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
       </c>
       <c r="J18">
-        <v>0.008965218168447472</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L18">
-        <v>16</v>
-      </c>
-      <c r="M18" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M18">
+        <v>-3.176496078790576e-09</v>
       </c>
       <c r="N18">
-        <v>1.590912163549273e-07</v>
+        <v>1.483689585067569e-07</v>
       </c>
       <c r="O18">
         <v>-6.352992157581152e-09</v>
@@ -4528,46 +4528,46 @@
     </row>
     <row r="19" spans="1:72">
       <c r="A19">
-        <v>6.220268350785128</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B19">
-        <v>0.08930374247127687</v>
+        <v>3.98107</v>
       </c>
       <c r="C19">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F19">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G19">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H19">
-        <v>0.0105885</v>
-      </c>
-      <c r="I19">
-        <v>0.0189193</v>
+        <v>0.02251963255358214</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
       </c>
       <c r="J19">
-        <v>0.02251963255358214</v>
+        <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L19">
-        <v>17</v>
-      </c>
-      <c r="M19" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M19">
+        <v>-7.542496212561859e-09</v>
       </c>
       <c r="N19">
-        <v>1.762577392799976e-07</v>
+        <v>1.528592307872125e-07</v>
       </c>
       <c r="O19">
         <v>-1.885624053140465e-08</v>
@@ -4746,49 +4746,49 @@
     </row>
     <row r="20" spans="1:72">
       <c r="A20">
-        <v>15.62462211604617</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B20">
-        <v>0.2243210663871573</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E20">
-        <v>25.1189</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F20">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G20">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H20">
-        <v>0.0105885</v>
-      </c>
-      <c r="I20">
-        <v>0.0189193</v>
+        <v>0.05656681175138058</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
       </c>
       <c r="J20">
-        <v>0.05656681175138058</v>
+        <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L20">
-        <v>18</v>
-      </c>
-      <c r="M20" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M20">
+        <v>-1.860198794109585e-08</v>
       </c>
       <c r="N20">
-        <v>2.990456644504659e-07</v>
+        <v>2.261796516602101e-07</v>
       </c>
       <c r="O20">
-        <v>-4.650496985273963e-08</v>
+        <v>-4.650496985273962e-08</v>
       </c>
       <c r="P20" t="s">
         <v>74</v>
@@ -4964,46 +4964,46 @@
     </row>
     <row r="21" spans="1:72">
       <c r="A21">
-        <v>39.24726557695332</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B21">
-        <v>0.5634688891426449</v>
+        <v>25.1189</v>
       </c>
       <c r="C21">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D21">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E21">
-        <v>63.0957</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F21">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G21">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H21">
-        <v>0.0105885</v>
-      </c>
-      <c r="I21">
-        <v>0.0189193</v>
+        <v>0.1420893681241716</v>
+      </c>
+      <c r="I21" t="s">
+        <v>72</v>
       </c>
       <c r="J21">
-        <v>0.1420893681241716</v>
+        <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L21">
-        <v>19</v>
-      </c>
-      <c r="M21" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M21">
+        <v>-4.79062162397652e-08</v>
       </c>
       <c r="N21">
-        <v>5.988473832322548e-07</v>
+        <v>3.485360234889065e-07</v>
       </c>
       <c r="O21">
         <v>-1.19765540599413e-07</v>
@@ -5182,46 +5182,46 @@
     </row>
     <row r="22" spans="1:72">
       <c r="A22">
-        <v>98.58450456006271</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B22">
-        <v>1.41536742635533</v>
+        <v>63.0957</v>
       </c>
       <c r="C22">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D22">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E22">
-        <v>158.489</v>
+        <v>0.0141536923822019</v>
       </c>
       <c r="F22">
-        <v>140.7</v>
+        <v>0.0105885</v>
       </c>
       <c r="G22">
-        <v>0.0141536923822019</v>
+        <v>0.0189193</v>
       </c>
       <c r="H22">
-        <v>0.0105885</v>
-      </c>
-      <c r="I22">
-        <v>0.0189193</v>
+        <v>0.3569117428654559</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
       </c>
       <c r="J22">
-        <v>0.3569117428654559</v>
+        <v>20</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L22">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M22">
+        <v>-1.387402853870619e-07</v>
       </c>
       <c r="N22">
-        <v>1.53407685075624e-06</v>
+        <v>6.364526489880525e-07</v>
       </c>
       <c r="O22">
         <v>-3.468507134676548e-07</v>
@@ -5400,46 +5400,46 @@
     </row>
     <row r="23" spans="1:72">
       <c r="A23">
-        <v>2.448359155490442</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B23">
-        <v>0.06352420810349738</v>
+        <v>1.58489</v>
       </c>
       <c r="C23">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D23">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E23">
-        <v>3.98107</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F23">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G23">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H23">
-        <v>0.0189193</v>
-      </c>
-      <c r="I23">
-        <v>0.0338045</v>
+        <v>0.005017539784163266</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
       </c>
       <c r="J23">
-        <v>0.005017539784163266</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L23">
-        <v>21</v>
-      </c>
-      <c r="M23" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M23">
+        <v>-5.075646098437806e-09</v>
       </c>
       <c r="N23">
-        <v>1.039138558406203e-07</v>
+        <v>8.596323399845827e-08</v>
       </c>
       <c r="O23">
         <v>-1.015129219687561e-08</v>
@@ -5618,46 +5618,46 @@
     </row>
     <row r="24" spans="1:72">
       <c r="A24">
-        <v>6.150006336141564</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B24">
-        <v>0.1595657571148406</v>
+        <v>3.98107</v>
       </c>
       <c r="C24">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E24">
-        <v>10</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F24">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G24">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H24">
-        <v>0.0189193</v>
-      </c>
-      <c r="I24">
-        <v>0.0338045</v>
+        <v>0.01260350279706622</v>
+      </c>
+      <c r="I24" t="s">
+        <v>72</v>
       </c>
       <c r="J24">
-        <v>0.01260350279706622</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L24">
-        <v>22</v>
-      </c>
-      <c r="M24" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M24">
+        <v>-1.257357449484197e-08</v>
       </c>
       <c r="N24">
-        <v>1.567173418032065e-07</v>
+        <v>8.944117469393166e-08</v>
       </c>
       <c r="O24">
         <v>-3.143393623710493e-08</v>
@@ -5836,46 +5836,46 @@
     </row>
     <row r="25" spans="1:72">
       <c r="A25">
-        <v>15.44813175164265</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B25">
-        <v>0.4008114307906832</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E25">
-        <v>25.1189</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F25">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G25">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H25">
-        <v>0.0189193</v>
-      </c>
-      <c r="I25">
-        <v>0.0338045</v>
+        <v>0.03165859693462173</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
       </c>
       <c r="J25">
-        <v>0.03165859693462173</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L25">
-        <v>23</v>
-      </c>
-      <c r="M25" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M25">
+        <v>-3.231801097513065e-08</v>
       </c>
       <c r="N25">
-        <v>3.516472694501103e-07</v>
+        <v>1.334336613442292e-07</v>
       </c>
       <c r="O25">
         <v>-8.079502743782663e-08</v>
@@ -6054,46 +6054,46 @@
     </row>
     <row r="26" spans="1:72">
       <c r="A26">
-        <v>38.80394194633541</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B26">
-        <v>1.006792519760553</v>
+        <v>25.1189</v>
       </c>
       <c r="C26">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D26">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E26">
-        <v>63.0957</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F26">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G26">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H26">
-        <v>0.0189193</v>
-      </c>
-      <c r="I26">
-        <v>0.0338045</v>
+        <v>0.0795227783723987</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
       </c>
       <c r="J26">
-        <v>0.0795227783723987</v>
+        <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L26">
-        <v>24</v>
-      </c>
-      <c r="M26" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M26">
+        <v>-8.679712070738341e-08</v>
       </c>
       <c r="N26">
-        <v>8.934807387774918e-07</v>
+        <v>2.049518862058669e-07</v>
       </c>
       <c r="O26">
         <v>-2.169928017684585e-07</v>
@@ -6272,49 +6272,49 @@
     </row>
     <row r="27" spans="1:72">
       <c r="A27">
-        <v>97.4709278600875</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B27">
-        <v>2.52894412633055</v>
+        <v>63.0957</v>
       </c>
       <c r="C27">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D27">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E27">
-        <v>158.489</v>
+        <v>0.02528947363726656</v>
       </c>
       <c r="F27">
-        <v>140.7</v>
+        <v>0.0189193</v>
       </c>
       <c r="G27">
-        <v>0.02528947363726656</v>
+        <v>0.0338045</v>
       </c>
       <c r="H27">
-        <v>0.0189193</v>
-      </c>
-      <c r="I27">
-        <v>0.0338045</v>
+        <v>0.1997518449205342</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
       </c>
       <c r="J27">
-        <v>0.1997518449205342</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L27">
-        <v>25</v>
-      </c>
-      <c r="M27" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M27">
+        <v>-2.58906320700253e-07</v>
       </c>
       <c r="N27">
-        <v>2.611213633225816e-06</v>
+        <v>3.291591614431467e-07</v>
       </c>
       <c r="O27">
-        <v>-6.472658017506326e-07</v>
+        <v>-6.472658017506325e-07</v>
       </c>
       <c r="P27" t="s">
         <v>74</v>
@@ -6490,46 +6490,46 @@
     </row>
     <row r="28" spans="1:72">
       <c r="A28">
-        <v>2.398379890199623</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B28">
-        <v>0.1135034733943162</v>
+        <v>1.58489</v>
       </c>
       <c r="C28">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D28">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E28">
-        <v>3.98107</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F28">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G28">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H28">
-        <v>0.0338045</v>
-      </c>
-      <c r="I28">
-        <v>0.0604011</v>
+        <v>0.002808154075685984</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
       </c>
       <c r="J28">
-        <v>0.002808154075685984</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L28">
-        <v>26</v>
-      </c>
-      <c r="M28" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M28">
+        <v>-7.837340557847892e-09</v>
       </c>
       <c r="N28">
-        <v>9.372433400111182e-08</v>
+        <v>4.911022076556026e-08</v>
       </c>
       <c r="O28">
         <v>-1.567468111569578e-08</v>
@@ -6708,46 +6708,46 @@
     </row>
     <row r="29" spans="1:72">
       <c r="A29">
-        <v>6.024463971360256</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B29">
-        <v>0.2851081218961484</v>
+        <v>3.98107</v>
       </c>
       <c r="C29">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D29">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F29">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G29">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H29">
-        <v>0.0338045</v>
-      </c>
-      <c r="I29">
-        <v>0.0604011</v>
+        <v>0.007053771224537151</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
       </c>
       <c r="J29">
-        <v>0.007053771224537151</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L29">
-        <v>27</v>
-      </c>
-      <c r="M29" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M29">
+        <v>-2.025248111895817e-08</v>
       </c>
       <c r="N29">
-        <v>2.095697123632055e-07</v>
+        <v>5.182462871524582e-08</v>
       </c>
       <c r="O29">
         <v>-4.050496223791635e-08</v>
@@ -6926,46 +6926,46 @@
     </row>
     <row r="30" spans="1:72">
       <c r="A30">
-        <v>15.13278329742119</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B30">
-        <v>0.7161598850121429</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E30">
-        <v>25.1189</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F30">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G30">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H30">
-        <v>0.0338045</v>
-      </c>
-      <c r="I30">
-        <v>0.0604011</v>
+        <v>0.01771828861089605</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
       </c>
       <c r="J30">
-        <v>0.01771828861089605</v>
+        <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L30">
-        <v>28</v>
-      </c>
-      <c r="M30" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M30">
+        <v>-5.359647222345897e-08</v>
       </c>
       <c r="N30">
-        <v>5.42063546327151e-07</v>
+        <v>7.844043647647823e-08</v>
       </c>
       <c r="O30">
         <v>-1.339911805586474e-07</v>
@@ -7144,46 +7144,46 @@
     </row>
     <row r="31" spans="1:72">
       <c r="A31">
-        <v>38.01182265921352</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B31">
-        <v>1.798911806882438</v>
+        <v>25.1189</v>
       </c>
       <c r="C31">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D31">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E31">
-        <v>63.0957</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F31">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G31">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H31">
-        <v>0.0338045</v>
-      </c>
-      <c r="I31">
-        <v>0.0604011</v>
+        <v>0.04450631660184525</v>
+      </c>
+      <c r="I31" t="s">
+        <v>72</v>
       </c>
       <c r="J31">
-        <v>0.04450631660184525</v>
+        <v>29</v>
       </c>
       <c r="K31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L31">
-        <v>29</v>
-      </c>
-      <c r="M31" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M31">
+        <v>-1.465431344480296e-07</v>
       </c>
       <c r="N31">
-        <v>1.47074378909752e-06</v>
+        <v>1.212873130782125e-07</v>
       </c>
       <c r="O31">
         <v>-3.663578361200738e-07</v>
@@ -7362,46 +7362,46 @@
     </row>
     <row r="32" spans="1:72">
       <c r="A32">
-        <v>95.481217587909</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B32">
-        <v>4.518654398509035</v>
+        <v>63.0957</v>
       </c>
       <c r="C32">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D32">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E32">
-        <v>158.489</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F32">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G32">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H32">
-        <v>0.0338045</v>
-      </c>
-      <c r="I32">
-        <v>0.0604011</v>
+        <v>0.1117946207840453</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
       </c>
       <c r="J32">
-        <v>0.1117946207840453</v>
+        <v>30</v>
       </c>
       <c r="K32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L32">
-        <v>30</v>
-      </c>
-      <c r="M32" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M32">
+        <v>-4.329568909402591e-07</v>
       </c>
       <c r="N32">
-        <v>4.334079793697941e-06</v>
+        <v>1.925409506922505e-07</v>
       </c>
       <c r="O32">
         <v>-1.082392227350648e-06</v>
@@ -7580,46 +7580,46 @@
     </row>
     <row r="33" spans="1:72">
       <c r="A33">
-        <v>239.8379890199622</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B33">
-        <v>11.35034733943161</v>
+        <v>158.489</v>
       </c>
       <c r="C33">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D33">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E33">
-        <v>398.107</v>
+        <v>0.04518660183007792</v>
       </c>
       <c r="F33">
-        <v>140.7</v>
+        <v>0.0338045</v>
       </c>
       <c r="G33">
-        <v>0.04518660183007792</v>
+        <v>0.0604011</v>
       </c>
       <c r="H33">
-        <v>0.0338045</v>
-      </c>
-      <c r="I33">
-        <v>0.0604011</v>
+        <v>0.2808154075685983</v>
+      </c>
+      <c r="I33" t="s">
+        <v>72</v>
       </c>
       <c r="J33">
-        <v>0.2808154075685983</v>
+        <v>31</v>
       </c>
       <c r="K33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L33">
-        <v>31</v>
-      </c>
-      <c r="M33" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M33">
+        <v>-1.523254804412058e-06</v>
       </c>
       <c r="N33">
-        <v>1.523624835798811e-05</v>
+        <v>3.279919976158941e-07</v>
       </c>
       <c r="O33">
         <v>-3.808137011030146e-06</v>
@@ -7798,49 +7798,49 @@
     </row>
     <row r="34" spans="1:72">
       <c r="A34">
-        <v>2.309078251466859</v>
+        <v>2.511883363593939</v>
       </c>
       <c r="B34">
-        <v>0.2028051121270798</v>
+        <v>1.58489</v>
       </c>
       <c r="C34">
-        <v>2.511883363593939</v>
+        <v>3.98107</v>
       </c>
       <c r="D34">
-        <v>1.58489</v>
+        <v>140.7</v>
       </c>
       <c r="E34">
-        <v>3.98107</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F34">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G34">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H34">
-        <v>0.0604011</v>
-      </c>
-      <c r="I34">
-        <v>0.107923</v>
+        <v>0.001571633170750852</v>
+      </c>
+      <c r="I34" t="s">
+        <v>72</v>
       </c>
       <c r="J34">
-        <v>0.001571633170750852</v>
+        <v>32</v>
       </c>
       <c r="K34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L34">
-        <v>32</v>
-      </c>
-      <c r="M34" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M34">
+        <v>-1.165369184861983e-08</v>
       </c>
       <c r="N34">
-        <v>1.207647512083725e-07</v>
+        <v>3.091044345166142e-08</v>
       </c>
       <c r="O34">
-        <v>-2.330738369723966e-08</v>
+        <v>-2.330738369723967e-08</v>
       </c>
       <c r="P34" t="s">
         <v>74</v>
@@ -8016,49 +8016,49 @@
     </row>
     <row r="35" spans="1:72">
       <c r="A35">
-        <v>5.800148170795324</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B35">
-        <v>0.5094239224610813</v>
+        <v>3.98107</v>
       </c>
       <c r="C35">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E35">
-        <v>10</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F35">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G35">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H35">
-        <v>0.0604011</v>
-      </c>
-      <c r="I35">
-        <v>0.107923</v>
+        <v>0.003947768012929398</v>
+      </c>
+      <c r="I35" t="s">
+        <v>72</v>
       </c>
       <c r="J35">
-        <v>0.003947768012929398</v>
+        <v>33</v>
       </c>
       <c r="K35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L35">
-        <v>33</v>
-      </c>
-      <c r="M35" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M35">
+        <v>-3.137569215438217e-08</v>
       </c>
       <c r="N35">
-        <v>3.152028076544658e-07</v>
+        <v>2.962406569898773e-08</v>
       </c>
       <c r="O35">
-        <v>-6.275138430876432e-08</v>
+        <v>-6.275138430876433e-08</v>
       </c>
       <c r="P35" t="s">
         <v>74</v>
@@ -8234,46 +8234,46 @@
     </row>
     <row r="36" spans="1:72">
       <c r="A36">
-        <v>14.56932696067921</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B36">
-        <v>1.27961622175412</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E36">
-        <v>25.1189</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F36">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G36">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H36">
-        <v>0.0604011</v>
-      </c>
-      <c r="I36">
-        <v>0.107923</v>
+        <v>0.009916354074346441</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
       </c>
       <c r="J36">
-        <v>0.009916354074346441</v>
+        <v>34</v>
       </c>
       <c r="K36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L36">
-        <v>34</v>
-      </c>
-      <c r="M36" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M36">
+        <v>-8.475245070530339e-08</v>
       </c>
       <c r="N36">
-        <v>8.487925200206167e-07</v>
+        <v>4.572577476453967e-08</v>
       </c>
       <c r="O36">
         <v>-1.695049014106068e-07</v>
@@ -8452,46 +8452,46 @@
     </row>
     <row r="37" spans="1:72">
       <c r="A37">
-        <v>36.59648471856541</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B37">
-        <v>3.214249747530543</v>
+        <v>25.1189</v>
       </c>
       <c r="C37">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D37">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E37">
-        <v>63.0957</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F37">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G37">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H37">
-        <v>0.0604011</v>
-      </c>
-      <c r="I37">
-        <v>0.107923</v>
+        <v>0.02490874844974892</v>
+      </c>
+      <c r="I37" t="s">
+        <v>72</v>
       </c>
       <c r="J37">
-        <v>0.02490874844974892</v>
+        <v>35</v>
       </c>
       <c r="K37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L37">
-        <v>35</v>
-      </c>
-      <c r="M37" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M37">
+        <v>-2.330459295915958e-07</v>
       </c>
       <c r="N37">
-        <v>2.331584381171116e-06</v>
+        <v>7.161514101741118e-08</v>
       </c>
       <c r="O37">
         <v>-5.826148239789895e-07</v>
@@ -8670,46 +8670,46 @@
     </row>
     <row r="38" spans="1:72">
       <c r="A38">
-        <v>91.92605552470052</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B38">
-        <v>8.073816461717527</v>
+        <v>63.0957</v>
       </c>
       <c r="C38">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D38">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E38">
-        <v>158.489</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F38">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G38">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H38">
-        <v>0.0604011</v>
-      </c>
-      <c r="I38">
-        <v>0.107923</v>
+        <v>0.06256783979803447</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
       </c>
       <c r="J38">
-        <v>0.06256783979803447</v>
+        <v>36</v>
       </c>
       <c r="K38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L38">
-        <v>36</v>
-      </c>
-      <c r="M38" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M38">
+        <v>-6.745111510331987e-07</v>
       </c>
       <c r="N38">
-        <v>6.746089385238771e-06</v>
+        <v>1.138493761697374e-07</v>
       </c>
       <c r="O38">
         <v>-1.686277877582997e-06</v>
@@ -8888,49 +8888,49 @@
     </row>
     <row r="39" spans="1:72">
       <c r="A39">
-        <v>230.9078251466858</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B39">
-        <v>20.28051121270797</v>
+        <v>158.489</v>
       </c>
       <c r="C39">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D39">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E39">
-        <v>398.107</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F39">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G39">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H39">
-        <v>0.0604011</v>
-      </c>
-      <c r="I39">
-        <v>0.107923</v>
+        <v>0.1571633170750852</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
       </c>
       <c r="J39">
-        <v>0.1571633170750852</v>
+        <v>37</v>
       </c>
       <c r="K39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L39">
-        <v>37</v>
-      </c>
-      <c r="M39" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M39">
+        <v>-2.206724037713457e-06</v>
       </c>
       <c r="N39">
-        <v>2.206804262649129e-05</v>
+        <v>1.869017835112793e-07</v>
       </c>
       <c r="O39">
-        <v>-5.516810094283642e-06</v>
+        <v>-5.516810094283644e-06</v>
       </c>
       <c r="P39" t="s">
         <v>74</v>
@@ -9106,46 +9106,46 @@
     </row>
     <row r="40" spans="1:72">
       <c r="A40">
-        <v>580.0148170795322</v>
+        <v>630.9572093256403</v>
       </c>
       <c r="B40">
-        <v>50.94239224610811</v>
+        <v>398.107</v>
       </c>
       <c r="C40">
-        <v>630.9572093256403</v>
+        <v>1000</v>
       </c>
       <c r="D40">
-        <v>398.107</v>
+        <v>140.7</v>
       </c>
       <c r="E40">
-        <v>1000</v>
+        <v>0.08073826797312411</v>
       </c>
       <c r="F40">
-        <v>140.7</v>
+        <v>0.0604011</v>
       </c>
       <c r="G40">
-        <v>0.08073826797312411</v>
+        <v>0.107923</v>
       </c>
       <c r="H40">
-        <v>0.0604011</v>
-      </c>
-      <c r="I40">
-        <v>0.107923</v>
+        <v>0.3947768012929397</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
       </c>
       <c r="J40">
-        <v>0.3947768012929397</v>
+        <v>38</v>
       </c>
       <c r="K40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L40">
-        <v>38</v>
-      </c>
-      <c r="M40" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M40">
+        <v>-9.035659887404542e-06</v>
       </c>
       <c r="N40">
-        <v>9.035735106201331e-05</v>
+        <v>3.67553495281975e-07</v>
       </c>
       <c r="O40">
         <v>-2.258914971851136e-05</v>
@@ -9324,46 +9324,46 @@
     </row>
     <row r="41" spans="1:72">
       <c r="A41">
-        <v>5.399347183347833</v>
+        <v>6.309572093256405</v>
       </c>
       <c r="B41">
-        <v>0.910224909908572</v>
+        <v>3.98107</v>
       </c>
       <c r="C41">
-        <v>6.309572093256405</v>
+        <v>10</v>
       </c>
       <c r="D41">
-        <v>3.98107</v>
+        <v>140.7</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F41">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G41">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H41">
-        <v>0.107923</v>
-      </c>
-      <c r="I41">
-        <v>0.192834</v>
+        <v>0.002209440155087479</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
       </c>
       <c r="J41">
-        <v>0.002209440155087479</v>
+        <v>39</v>
       </c>
       <c r="K41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L41">
-        <v>39</v>
-      </c>
-      <c r="M41" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M41">
+        <v>-4.682965726804564e-08</v>
       </c>
       <c r="N41">
-        <v>4.688597214683028e-07</v>
+        <v>2.314774257395621e-08</v>
       </c>
       <c r="O41">
         <v>-9.365931453609127e-08</v>
@@ -9542,46 +9542,46 @@
     </row>
     <row r="42" spans="1:72">
       <c r="A42">
-        <v>13.56255946779206</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B42">
-        <v>2.286383714641267</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E42">
-        <v>25.1189</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F42">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G42">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H42">
-        <v>0.107923</v>
-      </c>
-      <c r="I42">
-        <v>0.192834</v>
+        <v>0.005549867877790668</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
       </c>
       <c r="J42">
-        <v>0.005549867877790668</v>
+        <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L42">
-        <v>40</v>
-      </c>
-      <c r="M42" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M42">
+        <v>-1.268332779059134e-07</v>
       </c>
       <c r="N42">
-        <v>1.268608749107055e-06</v>
+        <v>2.685572019670275e-08</v>
       </c>
       <c r="O42">
         <v>-2.536665558118268e-07</v>
@@ -9760,49 +9760,49 @@
     </row>
     <row r="43" spans="1:72">
       <c r="A43">
-        <v>34.06759980383801</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B43">
-        <v>5.743134662257945</v>
+        <v>25.1189</v>
       </c>
       <c r="C43">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D43">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E43">
-        <v>63.0957</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F43">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G43">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H43">
-        <v>0.107923</v>
-      </c>
-      <c r="I43">
-        <v>0.192834</v>
+        <v>0.01394063401334736</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
       </c>
       <c r="J43">
-        <v>0.01394063401334736</v>
+        <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L43">
-        <v>41</v>
-      </c>
-      <c r="M43" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M43">
+        <v>-3.465749552469248e-07</v>
       </c>
       <c r="N43">
-        <v>3.466004167553752e-06</v>
+        <v>4.272418619090626e-08</v>
       </c>
       <c r="O43">
-        <v>-8.664373881173121e-07</v>
+        <v>-8.664373881173119e-07</v>
       </c>
       <c r="P43" t="s">
         <v>74</v>
@@ -9978,46 +9978,46 @@
     </row>
     <row r="44" spans="1:72">
       <c r="A44">
-        <v>85.57379473040416</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B44">
-        <v>14.42607725601388</v>
+        <v>63.0957</v>
       </c>
       <c r="C44">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D44">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E44">
-        <v>158.489</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F44">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G44">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H44">
-        <v>0.107923</v>
-      </c>
-      <c r="I44">
-        <v>0.192834</v>
+        <v>0.03501722928351062</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
       </c>
       <c r="J44">
-        <v>0.03501722928351062</v>
+        <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L44">
-        <v>42</v>
-      </c>
-      <c r="M44" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M44">
+        <v>-9.787292023669612e-07</v>
       </c>
       <c r="N44">
-        <v>9.787522907505371e-06</v>
+        <v>6.848123192624478e-08</v>
       </c>
       <c r="O44">
         <v>-2.446823005917404e-06</v>
@@ -10196,46 +10196,46 @@
     </row>
     <row r="45" spans="1:72">
       <c r="A45">
-        <v>214.9516665102326</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B45">
-        <v>36.2366698491612</v>
+        <v>158.489</v>
       </c>
       <c r="C45">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D45">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E45">
-        <v>398.107</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F45">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G45">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H45">
-        <v>0.107923</v>
-      </c>
-      <c r="I45">
-        <v>0.192834</v>
+        <v>0.08795930827626598</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
       </c>
       <c r="J45">
-        <v>0.08795930827626598</v>
+        <v>43</v>
       </c>
       <c r="K45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L45">
-        <v>43</v>
-      </c>
-      <c r="M45" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M45">
+        <v>-3.006049035399159e-06</v>
       </c>
       <c r="N45">
-        <v>3.006069012721386e-05</v>
+        <v>1.117744976522674e-07</v>
       </c>
       <c r="O45">
         <v>-7.515122588497897e-06</v>
@@ -10414,49 +10414,49 @@
     </row>
     <row r="46" spans="1:72">
       <c r="A46">
-        <v>539.934718334783</v>
+        <v>630.9572093256403</v>
       </c>
       <c r="B46">
-        <v>91.02249099085718</v>
+        <v>398.107</v>
       </c>
       <c r="C46">
-        <v>630.9572093256403</v>
+        <v>1000</v>
       </c>
       <c r="D46">
-        <v>398.107</v>
+        <v>140.7</v>
       </c>
       <c r="E46">
-        <v>1000</v>
+        <v>0.1442609572337575</v>
       </c>
       <c r="F46">
-        <v>140.7</v>
+        <v>0.107923</v>
       </c>
       <c r="G46">
-        <v>0.1442609572337575</v>
+        <v>0.192834</v>
       </c>
       <c r="H46">
-        <v>0.107923</v>
-      </c>
-      <c r="I46">
-        <v>0.192834</v>
+        <v>0.2209440155087479</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
       </c>
       <c r="J46">
-        <v>0.2209440155087479</v>
+        <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L46">
-        <v>44</v>
-      </c>
-      <c r="M46" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M46">
+        <v>-1.091414843502507e-05</v>
       </c>
       <c r="N46">
-        <v>0.0001091416441723491</v>
+        <v>1.907167521319781e-07</v>
       </c>
       <c r="O46">
-        <v>-2.728537108756268e-05</v>
+        <v>-2.728537108756266e-05</v>
       </c>
       <c r="P46" t="s">
         <v>74</v>
@@ -10632,46 +10632,46 @@
     </row>
     <row r="47" spans="1:72">
       <c r="A47">
-        <v>11.7636909983059</v>
+        <v>15.84894318243333</v>
       </c>
       <c r="B47">
-        <v>4.085252184127429</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>15.84894318243333</v>
+        <v>25.1189</v>
       </c>
       <c r="D47">
-        <v>10</v>
+        <v>140.7</v>
       </c>
       <c r="E47">
-        <v>25.1189</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F47">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G47">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H47">
-        <v>0.192834</v>
-      </c>
-      <c r="I47">
-        <v>0.344551</v>
+        <v>0.003106081818765749</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
       </c>
       <c r="J47">
-        <v>0.003106081818765749</v>
+        <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L47">
-        <v>45</v>
-      </c>
-      <c r="M47" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M47">
+        <v>-1.778598584338586e-07</v>
       </c>
       <c r="N47">
-        <v>1.778730269140645e-06</v>
+        <v>2.244576521113178e-08</v>
       </c>
       <c r="O47">
         <v>-3.557197168677172e-07</v>
@@ -10850,46 +10850,46 @@
     </row>
     <row r="48" spans="1:72">
       <c r="A48">
-        <v>29.54904773674991</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B48">
-        <v>10.26168672934605</v>
+        <v>25.1189</v>
       </c>
       <c r="C48">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D48">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E48">
-        <v>63.0957</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F48">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G48">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H48">
-        <v>0.192834</v>
-      </c>
-      <c r="I48">
-        <v>0.344551</v>
+        <v>0.007802122645875148</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
       </c>
       <c r="J48">
-        <v>0.007802122645875148</v>
+        <v>46</v>
       </c>
       <c r="K48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L48">
-        <v>46</v>
-      </c>
-      <c r="M48" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M48">
+        <v>-4.817809188649528e-07</v>
       </c>
       <c r="N48">
-        <v>4.817880512201221e-06</v>
+        <v>2.72916965925756e-08</v>
       </c>
       <c r="O48">
         <v>-9.635618377299056e-07</v>
@@ -11068,49 +11068,49 @@
     </row>
     <row r="49" spans="1:72">
       <c r="A49">
-        <v>74.22372459649121</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B49">
-        <v>25.77614738992684</v>
+        <v>63.0957</v>
       </c>
       <c r="C49">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D49">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E49">
-        <v>158.489</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F49">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G49">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H49">
-        <v>0.192834</v>
-      </c>
-      <c r="I49">
-        <v>0.344551</v>
+        <v>0.01959801235202782</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
       </c>
       <c r="J49">
-        <v>0.01959801235202782</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L49">
-        <v>47</v>
-      </c>
-      <c r="M49" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M49">
+        <v>-1.335852427306588e-06</v>
       </c>
       <c r="N49">
-        <v>1.335859271011978e-05</v>
+        <v>4.451490306626668e-08</v>
       </c>
       <c r="O49">
-        <v>-3.33963106826647e-06</v>
+        <v>-3.339631068266469e-06</v>
       </c>
       <c r="P49" t="s">
         <v>74</v>
@@ -11286,46 +11286,46 @@
     </row>
     <row r="50" spans="1:72">
       <c r="A50">
-        <v>186.4415776684463</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B50">
-        <v>64.74675869094753</v>
+        <v>158.489</v>
       </c>
       <c r="C50">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D50">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E50">
-        <v>398.107</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F50">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G50">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H50">
-        <v>0.192834</v>
-      </c>
-      <c r="I50">
-        <v>0.344551</v>
+        <v>0.04922798420507309</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
       </c>
       <c r="J50">
-        <v>0.04922798420507309</v>
+        <v>48</v>
       </c>
       <c r="K50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L50">
-        <v>48</v>
-      </c>
-      <c r="M50" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M50">
+        <v>-3.929445074282992e-06</v>
       </c>
       <c r="N50">
-        <v>3.929451340090927e-05</v>
+        <v>7.307326134762858e-08</v>
       </c>
       <c r="O50">
         <v>-9.82361268570748e-06</v>
@@ -11504,46 +11504,46 @@
     </row>
     <row r="51" spans="1:72">
       <c r="A51">
-        <v>468.3205408854692</v>
+        <v>630.9572093256403</v>
       </c>
       <c r="B51">
-        <v>162.6366684401711</v>
+        <v>398.107</v>
       </c>
       <c r="C51">
-        <v>630.9572093256403</v>
+        <v>1000</v>
       </c>
       <c r="D51">
-        <v>398.107</v>
+        <v>140.7</v>
       </c>
       <c r="E51">
-        <v>1000</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F51">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G51">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H51">
-        <v>0.192834</v>
-      </c>
-      <c r="I51">
-        <v>0.344551</v>
+        <v>0.1236552301151383</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
       </c>
       <c r="J51">
-        <v>0.1236552301151383</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L51">
-        <v>49</v>
-      </c>
-      <c r="M51" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M51">
+        <v>-1.306317042520304e-05</v>
       </c>
       <c r="N51">
-        <v>0.0001306317574935581</v>
+        <v>1.228767887035183e-07</v>
       </c>
       <c r="O51">
         <v>-3.265792606300761e-05</v>
@@ -11722,46 +11722,46 @@
     </row>
     <row r="52" spans="1:72">
       <c r="A52">
-        <v>1176.369099830589</v>
+        <v>1584.894318243332</v>
       </c>
       <c r="B52">
-        <v>408.5252184127426</v>
+        <v>1000</v>
       </c>
       <c r="C52">
-        <v>1584.894318243332</v>
+        <v>2511.89</v>
       </c>
       <c r="D52">
-        <v>1000</v>
+        <v>140.7</v>
       </c>
       <c r="E52">
-        <v>2511.89</v>
+        <v>0.2577618038693864</v>
       </c>
       <c r="F52">
-        <v>140.7</v>
+        <v>0.192834</v>
       </c>
       <c r="G52">
-        <v>0.2577618038693864</v>
+        <v>0.344551</v>
       </c>
       <c r="H52">
-        <v>0.192834</v>
-      </c>
-      <c r="I52">
-        <v>0.344551</v>
+        <v>0.3106081818765747</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
       </c>
       <c r="J52">
-        <v>0.3106081818765747</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L52">
-        <v>50</v>
-      </c>
-      <c r="M52" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M52">
+        <v>-5.363539315121611e-05</v>
       </c>
       <c r="N52">
-        <v>0.0005363539783056656</v>
+        <v>2.332463461533014e-07</v>
       </c>
       <c r="O52">
         <v>-0.0001340884828780403</v>
@@ -11940,46 +11940,46 @@
     </row>
     <row r="53" spans="1:72">
       <c r="A53">
-        <v>21.47541005445389</v>
+        <v>39.81073446609596</v>
       </c>
       <c r="B53">
-        <v>18.33532441164207</v>
+        <v>25.1189</v>
       </c>
       <c r="C53">
-        <v>39.81073446609596</v>
+        <v>63.0957</v>
       </c>
       <c r="D53">
-        <v>25.1189</v>
+        <v>140.7</v>
       </c>
       <c r="E53">
-        <v>63.0957</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F53">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G53">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H53">
-        <v>0.344551</v>
-      </c>
-      <c r="I53">
-        <v>0.615635</v>
+        <v>0.004366595137257079</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
       </c>
       <c r="J53">
-        <v>0.004366595137257079</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L53">
-        <v>51</v>
-      </c>
-      <c r="M53" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M53">
+        <v>-6.848368527504518e-07</v>
       </c>
       <c r="N53">
-        <v>6.848447433748252e-06</v>
+        <v>3.448063106246108e-08</v>
       </c>
       <c r="O53">
         <v>-1.369673705500904e-06</v>
@@ -12158,46 +12158,46 @@
     </row>
     <row r="54" spans="1:72">
       <c r="A54">
-        <v>53.94369847986937</v>
+        <v>99.99987198641804</v>
       </c>
       <c r="B54">
-        <v>46.05617350654868</v>
+        <v>63.0957</v>
       </c>
       <c r="C54">
-        <v>99.99987198641804</v>
+        <v>158.489</v>
       </c>
       <c r="D54">
-        <v>63.0957</v>
+        <v>140.7</v>
       </c>
       <c r="E54">
-        <v>158.489</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F54">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G54">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H54">
-        <v>0.344551</v>
-      </c>
-      <c r="I54">
-        <v>0.615635</v>
+        <v>0.0109683722392536</v>
+      </c>
+      <c r="I54" t="s">
+        <v>72</v>
       </c>
       <c r="J54">
-        <v>0.0109683722392536</v>
+        <v>52</v>
       </c>
       <c r="K54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L54">
-        <v>52</v>
-      </c>
-      <c r="M54" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M54">
+        <v>-1.88786762194284e-06</v>
       </c>
       <c r="N54">
-        <v>1.8878754989114e-05</v>
+        <v>5.716251292198546e-08</v>
       </c>
       <c r="O54">
         <v>-4.7196690548571e-06</v>
@@ -12376,46 +12376,46 @@
     </row>
     <row r="55" spans="1:72">
       <c r="A55">
-        <v>135.5004522412939</v>
+        <v>251.1883363593938</v>
       </c>
       <c r="B55">
-        <v>115.6878841180999</v>
+        <v>158.489</v>
       </c>
       <c r="C55">
-        <v>251.1883363593938</v>
+        <v>398.107</v>
       </c>
       <c r="D55">
-        <v>158.489</v>
+        <v>140.7</v>
       </c>
       <c r="E55">
-        <v>398.107</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F55">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G55">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H55">
-        <v>0.344551</v>
-      </c>
-      <c r="I55">
-        <v>0.615635</v>
+        <v>0.02755130702290171</v>
+      </c>
+      <c r="I55" t="s">
+        <v>72</v>
       </c>
       <c r="J55">
-        <v>0.02755130702290171</v>
+        <v>53</v>
       </c>
       <c r="K55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L55">
-        <v>53</v>
-      </c>
-      <c r="M55" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M55">
+        <v>-5.396080143577997e-06</v>
       </c>
       <c r="N55">
-        <v>5.396087694709843e-05</v>
+        <v>9.464065081435088e-08</v>
       </c>
       <c r="O55">
         <v>-1.349020035894499e-05</v>
@@ -12594,46 +12594,46 @@
     </row>
     <row r="56" spans="1:72">
       <c r="A56">
-        <v>340.362090245325</v>
+        <v>630.9572093256403</v>
       </c>
       <c r="B56">
-        <v>290.5951190803154</v>
+        <v>398.107</v>
       </c>
       <c r="C56">
-        <v>630.9572093256403</v>
+        <v>1000</v>
       </c>
       <c r="D56">
-        <v>398.107</v>
+        <v>140.7</v>
       </c>
       <c r="E56">
-        <v>1000</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F56">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G56">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H56">
-        <v>0.344551</v>
-      </c>
-      <c r="I56">
-        <v>0.615635</v>
+        <v>0.06920582398209697</v>
+      </c>
+      <c r="I56" t="s">
+        <v>72</v>
       </c>
       <c r="J56">
-        <v>0.06920582398209697</v>
+        <v>54</v>
       </c>
       <c r="K56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L56">
-        <v>54</v>
-      </c>
-      <c r="M56" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M56">
+        <v>-1.670867109649128e-05</v>
       </c>
       <c r="N56">
-        <v>0.000167086779844998</v>
+        <v>1.590708935330461e-07</v>
       </c>
       <c r="O56">
         <v>-4.17716777412282e-05</v>
@@ -12812,46 +12812,46 @@
     </row>
     <row r="57" spans="1:72">
       <c r="A57">
-        <v>854.951706712068</v>
+        <v>1584.894318243332</v>
       </c>
       <c r="B57">
-        <v>729.942611531264</v>
+        <v>1000</v>
       </c>
       <c r="C57">
-        <v>1584.894318243332</v>
+        <v>2511.89</v>
       </c>
       <c r="D57">
-        <v>1000</v>
+        <v>140.7</v>
       </c>
       <c r="E57">
-        <v>2511.89</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F57">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G57">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H57">
-        <v>0.344551</v>
-      </c>
-      <c r="I57">
-        <v>0.615635</v>
+        <v>0.1738373309591034</v>
+      </c>
+      <c r="I57" t="s">
+        <v>72</v>
       </c>
       <c r="J57">
-        <v>0.1738373309591034</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L57">
-        <v>55</v>
-      </c>
-      <c r="M57" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M57">
+        <v>-6.034849237486569e-05</v>
       </c>
       <c r="N57">
-        <v>0.0006034849839265232</v>
+        <v>2.826350266022881e-07</v>
       </c>
       <c r="O57">
         <v>-0.0001508712309371642</v>
@@ -13030,49 +13030,49 @@
     </row>
     <row r="58" spans="1:72">
       <c r="A58">
-        <v>2147.541005445388</v>
+        <v>3981.073446609594</v>
       </c>
       <c r="B58">
-        <v>1833.532441164207</v>
+        <v>2511.89</v>
       </c>
       <c r="C58">
-        <v>3981.073446609594</v>
+        <v>6309.57</v>
       </c>
       <c r="D58">
-        <v>2511.89</v>
+        <v>140.7</v>
       </c>
       <c r="E58">
-        <v>6309.57</v>
+        <v>0.4605623246478157</v>
       </c>
       <c r="F58">
-        <v>140.7</v>
+        <v>0.344551</v>
       </c>
       <c r="G58">
-        <v>0.4605623246478157</v>
+        <v>0.615635</v>
       </c>
       <c r="H58">
-        <v>0.344551</v>
-      </c>
-      <c r="I58">
-        <v>0.615635</v>
+        <v>0.4366595137257078</v>
+      </c>
+      <c r="I58" t="s">
+        <v>72</v>
       </c>
       <c r="J58">
-        <v>0.4366595137257078</v>
+        <v>56</v>
       </c>
       <c r="K58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L58">
-        <v>56</v>
-      </c>
-      <c r="M58" t="s">
-        <v>73</v>
+        <v>0.7</v>
+      </c>
+      <c r="M58">
+        <v>-0.0002744936649945369</v>
       </c>
       <c r="N58">
-        <v>0.002744936749453476</v>
+        <v>7.767581446244053e-07</v>
       </c>
       <c r="O58">
-        <v>-0.0006862341624863423</v>
+        <v>-0.0006862341624863422</v>
       </c>
       <c r="P58" t="s">
         <v>74</v>

--- a/pidis/expdata/90011.xlsx
+++ b/pidis/expdata/90011.xlsx
@@ -2994,7 +2994,7 @@
         <v>429</v>
       </c>
       <c r="M2">
-        <v>6.72503065856123e-06</v>
+        <v>-1.133119747238862e-06</v>
       </c>
       <c r="N2">
         <v>-5.684094732548752e-10</v>
@@ -4280,7 +4280,7 @@
         <v>429</v>
       </c>
       <c r="M3">
-        <v>1.671487004604276e-06</v>
+        <v>-1.654723752451261e-06</v>
       </c>
       <c r="N3">
         <v>-5.459836019542991e-10</v>
@@ -5566,7 +5566,7 @@
         <v>429</v>
       </c>
       <c r="M4">
-        <v>2.57047653727732e-06</v>
+        <v>-1.891036547798011e-07</v>
       </c>
       <c r="N4">
         <v>-9.226341157943208e-10</v>
@@ -6852,7 +6852,7 @@
         <v>429</v>
       </c>
       <c r="M5">
-        <v>9.378131260478488e-07</v>
+        <v>-1.683048567503306e-06</v>
       </c>
       <c r="N5">
         <v>-1.025780325433334e-09</v>
@@ -8138,7 +8138,7 @@
         <v>429</v>
       </c>
       <c r="M6">
-        <v>9.689552736589247e-07</v>
+        <v>-4.198001756858416e-07</v>
       </c>
       <c r="N6">
         <v>-1.182183681290693e-09</v>
@@ -9424,7 +9424,7 @@
         <v>429</v>
       </c>
       <c r="M7">
-        <v>5.357910224280977e-07</v>
+        <v>-5.369563848116205e-07</v>
       </c>
       <c r="N7">
         <v>-1.993544590075959e-09</v>
@@ -10710,7 +10710,7 @@
         <v>429</v>
       </c>
       <c r="M8">
-        <v>5.456463304965981e-07</v>
+        <v>-6.620706812703451e-07</v>
       </c>
       <c r="N8">
         <v>-3.041475666281322e-09</v>
@@ -11996,7 +11996,7 @@
         <v>429</v>
       </c>
       <c r="M9">
-        <v>9.261209598841768e-07</v>
+        <v>-3.440060193446689e-07</v>
       </c>
       <c r="N9">
         <v>-2.773461821051816e-09</v>
@@ -13282,7 +13282,7 @@
         <v>429</v>
       </c>
       <c r="M10">
-        <v>3.091528804775962e-07</v>
+        <v>-2.884508607780154e-07</v>
       </c>
       <c r="N10">
         <v>-3.427799996591499e-09</v>
@@ -14568,7 +14568,7 @@
         <v>429</v>
       </c>
       <c r="M11">
-        <v>3.142701703590889e-07</v>
+        <v>-1.517884228796495e-07</v>
       </c>
       <c r="N11">
         <v>-6.574410114990961e-09</v>
@@ -15854,7 +15854,7 @@
         <v>429</v>
       </c>
       <c r="M12">
-        <v>4.685048020598819e-07</v>
+        <v>-6.313833182657518e-07</v>
       </c>
       <c r="N12">
         <v>-1.041945494498192e-08</v>
@@ -17140,7 +17140,7 @@
         <v>429</v>
       </c>
       <c r="M13">
-        <v>9.607099692557811e-07</v>
+        <v>-7.425836119732026e-07</v>
       </c>
       <c r="N13">
         <v>-1.237958058661624e-08</v>
@@ -18426,7 +18426,7 @@
         <v>429</v>
       </c>
       <c r="M14">
-        <v>1.793427860826972e-07</v>
+        <v>-1.827347987740755e-07</v>
       </c>
       <c r="N14">
         <v>-5.532317326798498e-09</v>
@@ -19712,7 +19712,7 @@
         <v>429</v>
       </c>
       <c r="M15">
-        <v>1.831103709637765e-07</v>
+        <v>-1.033064467660999e-07</v>
       </c>
       <c r="N15">
         <v>-1.185948627071485e-08</v>
@@ -20998,7 +20998,7 @@
         <v>429</v>
       </c>
       <c r="M16">
-        <v>2.703477391323388e-07</v>
+        <v>-1.786486321974504e-07</v>
       </c>
       <c r="N16">
         <v>-2.459366109781126e-08</v>
@@ -22284,7 +22284,7 @@
         <v>429</v>
       </c>
       <c r="M17">
-        <v>4.315254278266381e-07</v>
+        <v>-3.51270114771933e-07</v>
       </c>
       <c r="N17">
         <v>-4.35308853058603e-08</v>
@@ -23570,7 +23570,7 @@
         <v>429</v>
       </c>
       <c r="M18">
-        <v>1.04284249004467e-07</v>
+        <v>-1.24339310935538e-07</v>
       </c>
       <c r="N18">
         <v>-8.670519234904065e-09</v>
@@ -24856,7 +24856,7 @@
         <v>429</v>
       </c>
       <c r="M19">
-        <v>1.072702529531674e-07</v>
+        <v>-1.108543751754484e-07</v>
       </c>
       <c r="N19">
         <v>-1.974825611414028e-08</v>
@@ -26142,7 +26142,7 @@
         <v>429</v>
       </c>
       <c r="M20">
-        <v>1.58520450450843e-07</v>
+        <v>-8.556383587512554e-08</v>
       </c>
       <c r="N20">
         <v>-4.553936240028505e-08</v>
@@ -27428,7 +27428,7 @@
         <v>429</v>
       </c>
       <c r="M21">
-        <v>2.441103002345255e-07</v>
+        <v>-6.234473493519123e-08</v>
       </c>
       <c r="N21">
         <v>-1.027689824430877e-07</v>
@@ -28714,7 +28714,7 @@
         <v>429</v>
       </c>
       <c r="M22">
-        <v>4.456031261464808e-07</v>
+        <v>-1.497066478317936e-07</v>
       </c>
       <c r="N22">
         <v>-2.250546886083395e-07</v>
@@ -30000,7 +30000,7 @@
         <v>429</v>
       </c>
       <c r="M23">
-        <v>6.036986920659255e-08</v>
+        <v>-8.322203423482831e-08</v>
       </c>
       <c r="N23">
         <v>-1.324423125573605e-08</v>
@@ -31286,7 +31286,7 @@
         <v>429</v>
       </c>
       <c r="M24">
-        <v>6.271229101735951e-08</v>
+        <v>-8.77394578443995e-08</v>
       </c>
       <c r="N24">
         <v>-3.134305793806718e-08</v>
@@ -32572,7 +32572,7 @@
         <v>429</v>
       </c>
       <c r="M25">
-        <v>9.34578839407625e-08</v>
+        <v>-9.935560832349207e-08</v>
       </c>
       <c r="N25">
         <v>-7.608651624069314e-08</v>
@@ -33858,7 +33858,7 @@
         <v>429</v>
       </c>
       <c r="M26">
-        <v>1.434928591957528e-07</v>
+        <v>-1.165460422627149e-07</v>
       </c>
       <c r="N26">
         <v>-1.875114975887574e-07</v>
@@ -35144,7 +35144,7 @@
         <v>429</v>
       </c>
       <c r="M27">
-        <v>2.304115927333273e-07</v>
+        <v>-1.366777728643991e-07</v>
       </c>
       <c r="N27">
         <v>-4.78143175688421e-07</v>
@@ -36430,7 +36430,7 @@
         <v>429</v>
       </c>
       <c r="M28">
-        <v>3.439099447647942e-08</v>
+        <v>-5.013028602978437e-08</v>
       </c>
       <c r="N28">
         <v>-1.924823549521138e-08</v>
@@ -37716,7 +37716,7 @@
         <v>429</v>
       </c>
       <c r="M29">
-        <v>3.626253498119949e-08</v>
+        <v>-5.820913150213867e-08</v>
       </c>
       <c r="N29">
         <v>-4.698521367913212e-08</v>
@@ -39002,7 +39002,7 @@
         <v>429</v>
       </c>
       <c r="M30">
-        <v>5.486996991403924e-08</v>
+        <v>-7.388686658057123e-08</v>
       </c>
       <c r="N30">
         <v>-1.176283280561421e-07</v>
@@ -40288,7 +40288,7 @@
         <v>429</v>
       </c>
       <c r="M31">
-        <v>8.485057360981333e-08</v>
+        <v>-9.852810034671203e-08</v>
       </c>
       <c r="N31">
         <v>-3.016049974812672e-07</v>
@@ -41574,7 +41574,7 @@
         <v>429</v>
       </c>
       <c r="M32">
-        <v>1.347189758720371e-07</v>
+        <v>-1.326089200934363e-07</v>
       </c>
       <c r="N32">
         <v>-8.126983857379977e-07</v>
@@ -42860,7 +42860,7 @@
         <v>429</v>
       </c>
       <c r="M33">
-        <v>2.295172039428985e-07</v>
+        <v>-1.828641101015639e-07</v>
       </c>
       <c r="N33">
         <v>-2.521863739022497e-06</v>
@@ -44146,7 +44146,7 @@
         <v>429</v>
       </c>
       <c r="M34">
-        <v>2.156833118468555e-08</v>
+        <v>-2.553687358972985e-08</v>
       </c>
       <c r="N34">
         <v>-2.579024432605786e-08</v>
@@ -45432,7 +45432,7 @@
         <v>429</v>
       </c>
       <c r="M35">
-        <v>2.067640702640182e-08</v>
+        <v>-3.231122999526409e-08</v>
       </c>
       <c r="N35">
         <v>-6.473953886200259e-08</v>
@@ -46718,7 +46718,7 @@
         <v>429</v>
       </c>
       <c r="M36">
-        <v>3.193369844355423e-08</v>
+        <v>-4.42131701517942e-08</v>
       </c>
       <c r="N36">
         <v>-1.656364735879039e-07</v>
@@ -48004,7 +48004,7 @@
         <v>429</v>
       </c>
       <c r="M37">
-        <v>5.004094344910997e-08</v>
+        <v>-6.319720117095831e-08</v>
       </c>
       <c r="N37">
         <v>-4.340631455924695e-07</v>
@@ -49290,7 +49290,7 @@
         <v>429</v>
       </c>
       <c r="M38">
-        <v>7.958610636875804e-08</v>
+        <v>-9.16266251787373e-08</v>
       </c>
       <c r="N38">
         <v>-1.193297057131826e-06</v>
@@ -50576,7 +50576,7 @@
         <v>429</v>
       </c>
       <c r="M39">
-        <v>1.30696621263266e-07</v>
+        <v>-1.353294450150819e-07</v>
       </c>
       <c r="N39">
         <v>-3.677104762888836e-06</v>
@@ -51862,7 +51862,7 @@
         <v>429</v>
       </c>
       <c r="M40">
-        <v>2.570760142179483e-07</v>
+        <v>-2.129447348150136e-07</v>
       </c>
       <c r="N40">
         <v>-1.433224029142737e-05</v>
@@ -53148,7 +53148,7 @@
         <v>429</v>
       </c>
       <c r="M41">
-        <v>1.615011307809272e-08</v>
+        <v>-1.656371737981152e-08</v>
       </c>
       <c r="N41">
         <v>-8.568347466103322e-08</v>
@@ -54434,7 +54434,7 @@
         <v>429</v>
       </c>
       <c r="M42">
-        <v>1.875096032675791e-08</v>
+        <v>-2.505680254170144e-08</v>
       </c>
       <c r="N42">
         <v>-2.303745316785482e-07</v>
@@ -55720,7 +55720,7 @@
         <v>429</v>
       </c>
       <c r="M43">
-        <v>2.984465945414077e-08</v>
+        <v>-3.909385273497982e-08</v>
       </c>
       <c r="N43">
         <v>-6.29840555225749e-07</v>
@@ -57006,7 +57006,7 @@
         <v>429</v>
       </c>
       <c r="M44">
-        <v>4.785365954968553e-08</v>
+        <v>-6.128885182964314e-08</v>
       </c>
       <c r="N44">
         <v>-1.771106525248071e-06</v>
@@ -58292,7 +58292,7 @@
         <v>429</v>
       </c>
       <c r="M45">
-        <v>7.812813455258729e-08</v>
+        <v>-9.576307926471816e-08</v>
       </c>
       <c r="N45">
         <v>-5.317071801837082e-06</v>
@@ -59578,7 +59578,7 @@
         <v>429</v>
       </c>
       <c r="M46">
-        <v>1.333430009357248e-07</v>
+        <v>-1.495544466774364e-07</v>
       </c>
       <c r="N46">
         <v>-1.832275181377856e-05</v>
@@ -60864,7 +60864,7 @@
         <v>429</v>
       </c>
       <c r="M47">
-        <v>1.568330012118191e-08</v>
+        <v>-2.022832624909114e-08</v>
       </c>
       <c r="N47">
         <v>-4.240722534950682e-07</v>
@@ -62150,7 +62150,7 @@
         <v>429</v>
       </c>
       <c r="M48">
-        <v>1.907502066644065e-08</v>
+        <v>-3.334276728315682e-08</v>
       </c>
       <c r="N48">
         <v>-1.161330384110482e-06</v>
@@ -63436,7 +63436,7 @@
         <v>429</v>
       </c>
       <c r="M49">
-        <v>3.111797494457857e-08</v>
+        <v>-5.43227044950157e-08</v>
       </c>
       <c r="N49">
         <v>-3.197496754349339e-06</v>
@@ -64722,7 +64722,7 @@
         <v>429</v>
       </c>
       <c r="M50">
-        <v>5.109030208434861e-08</v>
+        <v>-8.66071982240104e-08</v>
       </c>
       <c r="N50">
         <v>-9.033742974389426e-06</v>
@@ -66008,7 +66008,7 @@
         <v>429</v>
       </c>
       <c r="M51">
-        <v>8.592346788153226e-08</v>
+        <v>-1.332532769123699e-07</v>
       </c>
       <c r="N51">
         <v>-2.724124306004336e-05</v>
@@ -67294,7 +67294,7 @@
         <v>429</v>
       </c>
       <c r="M52">
-        <v>1.631116902760561e-07</v>
+        <v>-1.989150145931248e-07</v>
       </c>
       <c r="N52">
         <v>-9.498691992004661e-05</v>
@@ -68580,7 +68580,7 @@
         <v>429</v>
       </c>
       <c r="M53">
-        <v>2.409144667440583e-08</v>
+        <v>-4.182415918998704e-08</v>
       </c>
       <c r="N53">
         <v>-2.260779857835749e-06</v>
@@ -69866,7 +69866,7 @@
         <v>429</v>
       </c>
       <c r="M54">
-        <v>3.994430651958726e-08</v>
+        <v>-7.477617508269783e-08</v>
       </c>
       <c r="N54">
         <v>-6.266832176877293e-06</v>
@@ -71152,7 +71152,7 @@
         <v>429</v>
       </c>
       <c r="M55">
-        <v>6.614432614385788e-08</v>
+        <v>-1.298622999299873e-07</v>
       </c>
       <c r="N55">
         <v>-1.748180175011698e-05</v>
@@ -72438,7 +72438,7 @@
         <v>429</v>
       </c>
       <c r="M56">
-        <v>1.111869220075403e-07</v>
+        <v>-2.153293979231852e-07</v>
       </c>
       <c r="N56">
         <v>-4.971548846057243e-05</v>
@@ -73724,7 +73724,7 @@
         <v>429</v>
       </c>
       <c r="M57">
-        <v>1.975395365667328e-07</v>
+        <v>-3.332551603116484e-07</v>
       </c>
       <c r="N57">
         <v>-0.0001488946369847833</v>
@@ -75010,7 +75010,7 @@
         <v>429</v>
       </c>
       <c r="M58">
-        <v>5.42980308836153e-07</v>
+        <v>-4.825946137839906e-07</v>
       </c>
       <c r="N58">
         <v>-0.0005100963001190656</v>
